--- a/biology/Botanique/Italia_(cépage)/Italia_(cépage).xlsx
+++ b/biology/Botanique/Italia_(cépage)/Italia_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Italia_(c%C3%A9page)</t>
+          <t>Italia_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cépage italia B[1] est un cépage de raisin blanc italien consommé exclusivement comme raisin de table.
+Le cépage italia B est un cépage de raisin blanc italien consommé exclusivement comme raisin de table.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Italia_(c%C3%A9page)</t>
+          <t>Italia_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Histoire
-L'italia est le résultat du croisement entre le bicane et le muscat de Hambourg[2]. Il a été obtenu en Italie en 1911 par Luigi et Alberto Pirovano de Vaprio d'Adda.
-Synonymes
-idéal, Pirovano 65, rubi pour le rose
-Variabilité génétique
-Clones
-- Clones agréés : quatre au total, les 307, 784, 858 et 918, à préférer le 307.
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'italia est le résultat du croisement entre le bicane et le muscat de Hambourg. Il a été obtenu en Italie en 1911 par Luigi et Alberto Pirovano de Vaprio d'Adda.
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Italia_(c%C3%A9page)</t>
+          <t>Italia_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,17 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aptitudes</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Son port est semi-érigé, il est vigoureux et forme de très long sarments.
-Il faut le conduire en taille très longue car les 8 premiers bourgeons ne sont généralement pas fertiles.
-Ses raisins ne se conservent bien sur souches qu'à bonne exposition et bien aérés, sinon ils pourrissent facilement car les pellicules des baies ont tendance à se fendre.
-Sensibilité aux maladies
-Sensible à l'érinose, au mildiou et plus encore à l'oïdium (attention toutefois au soufre en poudre car il est très sensible : faire des soufrages très légers et répétés). Très attaqué par les vers de la grappe et les araignées jaunes.
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">idéal, Pirovano 65, rubi pour le rose
 </t>
         </is>
       </c>
@@ -567,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Italia_(c%C3%A9page)</t>
+          <t>Italia_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +595,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variabilité génétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Clones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Clones agréés : quatre au total, les 307, 784, 858 et 918, à préférer le 307.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Italia_(cépage)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Italia_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son port est semi-érigé, il est vigoureux et forme de très long sarments.
+Il faut le conduire en taille très longue car les 8 premiers bourgeons ne sont généralement pas fertiles.
+Ses raisins ne se conservent bien sur souches qu'à bonne exposition et bien aérés, sinon ils pourrissent facilement car les pellicules des baies ont tendance à se fendre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Italia_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Italia_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sensible à l'érinose, au mildiou et plus encore à l'oïdium (attention toutefois au soufre en poudre car il est très sensible : faire des soufrages très légers et répétés). Très attaqué par les vers de la grappe et les araignées jaunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Italia_(cépage)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Italia_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Grappes assez grandes, cylindro-coniques, lâches. Baies ellipsoïdes, très grosses, de couleur jaune ambré devenant rosée à complète maturité, peau épaisse, pulpe charnue, croquante, saveur légèrement musquée, pédicelles se détachant assez facilement de la grappe à maturité complète. À noter que les pétioles des feuilles sont de couleur rose violacé et ses vrilles sont longues, fortes et souvent lignifiées.
 Se conserve bien sur souche. Adapté aux tonnelles et pergolas.
